--- a/data_craw/quarter/income_statement_quarter/tcb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/tcb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978914000000</v>
+        <v>1653429000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1490285000000</v>
+        <v>1351698000000</v>
       </c>
       <c r="D4" t="n">
-        <v>1172031000000</v>
+        <v>1291294000000</v>
       </c>
       <c r="E4" t="n">
-        <v>1269814000000</v>
+        <v>1070117000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1653429000000</v>
+        <v>933055000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1351698000000</v>
+        <v>1052548000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1291294000000</v>
+        <v>972806000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1070117000000</v>
+        <v>1295430000000</v>
       </c>
       <c r="J4" t="n">
-        <v>933055000000</v>
+        <v>1135827000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1052548000000</v>
+        <v>1107240000000</v>
       </c>
       <c r="L4" t="n">
-        <v>972806000000</v>
+        <v>2858105000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1295430000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1135827000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1107240000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2858105000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>1657903000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559784000000</v>
+        <v>826901000000</v>
       </c>
       <c r="C5" t="n">
-        <v>877440000000</v>
+        <v>698839000000</v>
       </c>
       <c r="D5" t="n">
-        <v>818200000000</v>
+        <v>620023000000</v>
       </c>
       <c r="E5" t="n">
-        <v>862058000000</v>
+        <v>622383000000</v>
       </c>
       <c r="F5" t="n">
-        <v>826901000000</v>
+        <v>777501000000</v>
       </c>
       <c r="G5" t="n">
-        <v>698839000000</v>
+        <v>520578000000</v>
       </c>
       <c r="H5" t="n">
-        <v>620023000000</v>
+        <v>484307000000</v>
       </c>
       <c r="I5" t="n">
-        <v>622383000000</v>
+        <v>541498000000</v>
       </c>
       <c r="J5" t="n">
-        <v>777501000000</v>
+        <v>694501000000</v>
       </c>
       <c r="K5" t="n">
-        <v>520578000000</v>
+        <v>612268000000</v>
       </c>
       <c r="L5" t="n">
-        <v>484307000000</v>
+        <v>1801006000000</v>
       </c>
       <c r="M5" t="n">
-        <v>541498000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>694501000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>612268000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1801006000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>718742000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2582592000000</v>
+        <v>3180267000000</v>
       </c>
       <c r="C7" t="n">
-        <v>3118826000000</v>
+        <v>4007551000000</v>
       </c>
       <c r="D7" t="n">
-        <v>2505654000000</v>
+        <v>4476217000000</v>
       </c>
       <c r="E7" t="n">
-        <v>2888995000000</v>
+        <v>4806657000000</v>
       </c>
       <c r="F7" t="n">
-        <v>3180267000000</v>
+        <v>4432055000000</v>
       </c>
       <c r="G7" t="n">
-        <v>4007551000000</v>
+        <v>4683818000000</v>
       </c>
       <c r="H7" t="n">
-        <v>4476217000000</v>
+        <v>5614544000000</v>
       </c>
       <c r="I7" t="n">
-        <v>4806657000000</v>
+        <v>5879789000000</v>
       </c>
       <c r="J7" t="n">
-        <v>4432055000000</v>
+        <v>5367540000000</v>
       </c>
       <c r="K7" t="n">
-        <v>4683818000000</v>
+        <v>3572087000000</v>
       </c>
       <c r="L7" t="n">
-        <v>5614544000000</v>
+        <v>4537097000000</v>
       </c>
       <c r="M7" t="n">
-        <v>5879789000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5367540000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3572087000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4537097000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>4503449000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,53 +737,45 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28363000000</v>
+        <v>81249000000</v>
       </c>
       <c r="C8" t="n">
-        <v>89580000000</v>
+        <v>54452000000</v>
       </c>
       <c r="D8" t="n">
-        <v>49762000000</v>
+        <v>79488000000</v>
       </c>
       <c r="E8" t="n">
-        <v>72116000000</v>
+        <v>95625000000</v>
       </c>
       <c r="F8" t="n">
-        <v>81249000000</v>
+        <v>94455000000</v>
       </c>
       <c r="G8" t="n">
-        <v>54452000000</v>
+        <v>91588000000</v>
       </c>
       <c r="H8" t="n">
-        <v>79488000000</v>
+        <v>109930000000</v>
       </c>
       <c r="I8" t="n">
-        <v>95625000000</v>
+        <v>79298000000</v>
       </c>
       <c r="J8" t="n">
-        <v>94455000000</v>
+        <v>69574000000</v>
       </c>
       <c r="K8" t="n">
-        <v>91588000000</v>
+        <v>27815000000</v>
       </c>
       <c r="L8" t="n">
-        <v>109930000000</v>
+        <v>40202000000</v>
       </c>
       <c r="M8" t="n">
-        <v>79298000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>69574000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27815000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>40202000000</v>
-      </c>
-      <c r="Q8" t="n">
         <v>48394000000</v>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
